--- a/StyleCodes.xlsx
+++ b/StyleCodes.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F3"/>
@@ -521,6 +521,11 @@
           <t>adidas</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Crazy-BYW-X-2-Ubiq.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606936652</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -553,6 +558,11 @@
           <t>adidas</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Pro-Bounce-Mid-2018-Kristaps-Porzingis-PE.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1626898739</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -585,6 +595,11 @@
           <t>adidas</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-Ozweego-3-Raf-Simons-Cream-White-Core-Black-Product.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1619145566</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -624,6 +639,36 @@
           <t>q16485</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adidas Poweralley 4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Core Black/White/Gold</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Poweralley-4-Core-Black-White-Gold.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1627414789</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -631,6 +676,36 @@
           <t>g27900</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adidas ZX 4000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sesame/Clear Brown/Core Black</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2019-03-08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-ZX-4000-Sesame.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1627414851</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -638,6 +713,36 @@
           <t>q20443</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>adidas ZX 500 OG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Grey/Red</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-ZX-500-OG-Grey-Red.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1627415526</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -645,6 +750,31 @@
           <t>m19079</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -652,11 +782,61 @@
           <t>ac7737</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>g98384</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Not found</t>
         </is>
       </c>
     </row>

--- a/StyleCodes.xlsx
+++ b/StyleCodes.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F804"/>
+  <dimension ref="A1:G804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -510,27 +510,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>adidas CNTR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Solid Grey/Grey Rock/White Vapour</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-CNTR-Hanon.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606938232</t>
         </is>
       </c>
     </row>

--- a/StyleCodes.xlsx
+++ b/StyleCodes.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:G804"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -579,27 +579,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>adidas I-5923</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Black/Blue/Coral</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>130</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>2018-04-06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-I-5923-Hawaiian-Thunderstorm.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606937018</t>
         </is>
       </c>
     </row>
@@ -611,27 +616,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>adidas Campus 80s</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Core White/Off White/Black</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>196</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>2019-10-15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Campus-By-Helen-Kirkum.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606938198</t>
         </is>
       </c>
     </row>
@@ -643,27 +653,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>adidas Superstar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Tan/Tan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>900</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>2017-09-02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-Superstar-Hender-Scheme.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1626900077</t>
         </is>
       </c>
     </row>
@@ -673,6 +688,31 @@
           <t>cq2026</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -680,11 +720,66 @@
           <t>d74555</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>g27820</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adidas Nizza Hi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Off White/Off White/White</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2019-05-02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Nizza-Hi-Alife-New-York-Product.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1626898333</t>
         </is>
       </c>
     </row>
@@ -692,16 +787,101 @@
       <c r="A10" s="3" t="n">
         <v>562880</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>adidas adiColor Lo Y1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sun/White/Sun</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2006-01-01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-adiColor-Lo-Y1-Huf-Ray-Fong.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606933354</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
         <v>384552</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
           <t>ac6842</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adidas AW Hike Lo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Grey/Core Black/Simple Brown</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2017-11-04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-AW-Hike-Lo-Alexander-Wang-Grey.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606934581</t>
         </is>
       </c>
     </row>
@@ -709,6 +889,36 @@
       <c r="A13" s="3" t="n">
         <v>467309</v>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adidas Crazy 1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Running White/Sunshine/Collegiate Purple</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2006-01-01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-Crazy-1-Lakers-Home.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606935231</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -716,6 +926,31 @@
           <t>f35151</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -723,6 +958,36 @@
           <t>fu6622</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adidas Response Hoverturf GF6100LC</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Maroon/Purple</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2019-10-12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Response-Hoverturf-GF6100LC-Gardening-Club.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1626898936</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -730,6 +995,36 @@
           <t>db3040</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Waffle Trainer 2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Velvet Brown/Dark Sulfur-Summit White</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2021-05-01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Nike-Waffle-Trainer-2-Velvet-Brown-Product.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1625593207</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -737,6 +1032,36 @@
           <t>ee6283</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>adidas NMD Hu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>White/Blue/Red</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2018-06-16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-Nmd-Hu-Pharrell-Nerd-Homecoming.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1607647527</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -744,6 +1069,36 @@
           <t>ee6297</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>adidas NMD Hu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Green/Yellow</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2018-09-11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-NMD-Hu-Pharrell-Nerd-Green-Yellow-Product.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1612546824</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -751,6 +1106,31 @@
           <t>d65971</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -758,11 +1138,66 @@
           <t>cg5069</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>adidas Tubular Invader Strap</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Linen Khaki/Linen Khaki/Linen Khaki</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2017-01-01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-Tubular-Invader-Strap-Linen-Khaki.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1626900701</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
           <t>s78705</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -770,6 +1205,36 @@
       <c r="A22" s="3" t="n">
         <v>678653</v>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>adidas Ultrastar</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Black/Running White</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2003-01-01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Ultrastar-Jam-Master-Jay.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1627415559</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -777,6 +1242,31 @@
           <t>ac8169</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -784,6 +1274,36 @@
           <t>bc0909</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>adidas Y-3 Kaiwa</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yellow/White/Black</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Y-3-Kaiwa-Yellow-Product.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1607716233</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -791,6 +1311,31 @@
           <t>bb7365</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -798,6 +1343,31 @@
           <t>ac7506</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -805,6 +1375,36 @@
           <t>db0712</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>adidas Ultra Boost Mid</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Core Black/Core Black/Grey</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2017-11-24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-Ultra-Boost-Mid-Kith-x-Nonnative-Product.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606323289</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -812,6 +1412,31 @@
           <t>cg2999</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
@@ -819,6 +1444,36 @@
           <t>q33088</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>adidas Crazy 97 EQT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rgpunb/Runninwhite/Golsld</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-Crazy-97-EQT-Kobe-Bryant-1997-Slam-Dunk-Contest-Product.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606935783</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -826,11 +1481,66 @@
           <t>g15459</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>adidas Rod Laver Vulc</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Medium Lead/Medium Lead/White</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://stockx-assets.imgix.net/media/Product-Placeholder-Default-20210415.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
           <t>g95772</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -838,16 +1548,106 @@
       <c r="A32" s="3" t="n">
         <v>47967</v>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>adidas TS Lightswitch Gil</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Black 1/Cobalt Slate/Running White</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2008-02-09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-TS-Lightswitch-Gil-Halo-3.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1626900097</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
         <v>562890</v>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>adidas Century Low G3</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fairway/White/Fairway</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2006-05-01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-Century-Low-G3-Emilio-Pucci.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606936427</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
         <v>562888</v>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>adidas adiColor Lo Y1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sun/White/Sun</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2006-01-01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-adiColor-Lo-Y1-Huf-Ray-Fong.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606933354</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
@@ -855,6 +1655,31 @@
           <t>d69869</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -862,6 +1687,36 @@
           <t>eg1490</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Boost 350 V2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Clay/Clay/Clay</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2019-03-30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Yeezy-Boost-350-V2-Clay-Product.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606321232</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -869,6 +1724,36 @@
           <t>fv9906</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>adidas Americana</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Off White/Grey/Gum</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2019-07-25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Americana-Beastie-Boys-Pauls-Boutique-30th-Anniversary-Product.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606933923</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -876,6 +1761,31 @@
           <t>vn0a38cgad3</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -883,6 +1793,36 @@
           <t>b22535</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>adidas Spirit Low Assym Tongue</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Core Black/Core Black/Yellow</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Spirit-Low-Assym-Tongue-Raf-Simons-Black.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1624561280</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -890,6 +1830,36 @@
           <t>hk5384211</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASICS Gel-Lyte III</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Grey/Blue/Green</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ASICS</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Asics-Gel-Lyte-III-Grey-Multicolor.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1612007920</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -897,6 +1867,31 @@
           <t>ef2397</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -904,6 +1899,31 @@
           <t>bb7959</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -911,6 +1931,31 @@
           <t>g25869</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
@@ -918,6 +1963,31 @@
           <t>aq7847</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
@@ -925,6 +1995,31 @@
           <t>b24557</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -932,6 +2027,36 @@
           <t>g47023</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>adidas Forum Mid UNDFTD All Star Weekend</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Black/White</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Forum-Mid-UNDFTD-All-Star-Weekend-Black.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606936678</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
@@ -939,6 +2064,31 @@
           <t>g51707</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -946,6 +2096,36 @@
           <t>bb8912</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>adidas Tubular Shadow</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Black/Black-White</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Tubular-Shadow-Black-Black-White.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1626900668</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -953,6 +2133,36 @@
           <t>g17153</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>adidas Superskate Mid</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Light Sand Hay/Dark Sand Hay/White</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2010-01-01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Superskate-Mid-Star-Wars-Rogue-Leader-Hoth.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1626899762</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -960,6 +2170,36 @@
           <t>ac6850</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>adidas Skate Mid</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Core Black/Core Black/Core Black</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2017-10-07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/Adidas-Skate-Mid-Alexander-Wang-Core-Black.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1626899668</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -967,6 +2207,36 @@
           <t>ef8844</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>adidas Tmac Millennium</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Footwear White/Core Black/Shock Pink</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2019-07-01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Tmac-Millennium-White-Black-Pink.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1626900346</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
@@ -974,6 +2244,36 @@
           <t>cg3595</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>adidas Nite Jogger</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Footwear White/Crystal White/Core Black</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2019-02-28</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-Nite-Jogger-White-Grey-Product.jpg?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1607672078</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -981,6 +2281,36 @@
           <t>bbc002</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>adidas CF Racer TR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Trace Olive/Core Black/Trace Cargo</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://images.stockx.com/images/adidas-CF-Racer-TR-Trace-Olive.png?fit=fill&amp;bg=FFFFFF&amp;w=700&amp;h=500&amp;auto=format,compress&amp;q=90&amp;dpr=2&amp;trim=color&amp;updated_at=1606935052</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -988,6 +2318,31 @@
           <t>aq4836</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -995,6 +2350,31 @@
           <t>cm7896</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -1002,6 +2382,31 @@
           <t>cm7895</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -1009,6 +2414,31 @@
           <t>cg7065</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
@@ -1016,6 +2446,31 @@
           <t>aq5560</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -1023,6 +2478,31 @@
           <t>bb0801</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -1030,11 +2510,61 @@
           <t>m25784</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
           <t>f99761</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Not found</t>
         </is>
       </c>
     </row>

--- a/StyleCodes.xlsx
+++ b/StyleCodes.xlsx
@@ -579,27 +579,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adidas I-5923</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Black/Blue/Coral</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2018-04-06</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
